--- a/aanvragen.xlsx
+++ b/aanvragen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,331 +547,183 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jan Vlasman</t>
+          <t>Joop de Graaf</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4548000</t>
+          <t>4575741</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0684687920</t>
+          <t>0629780039</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jan.vlasman99@gmail.com</t>
+          <t>Joop.de.graaf@student.nhlstenden.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23-10-2022</t>
+          <t>08-11-2022</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Arcady</t>
+          <t>De Haan Westerhoff</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bezoekers conferentie webapplicatie t.b.v. de Conferentie</t>
+          <t>Het optimaliseren van de digitale bedrijfsprocessen op de afdeling planning en de planningsdata beschikbaar maken voor de andere afdelingen van DHW.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jan Vlasman</t>
+          <t>Kevin Chen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4548000</t>
+          <t>3517488</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0684687920</t>
+          <t>050 – 520 1300</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jan.vlasman99@gmail.com</t>
+          <t>Kevin.chen@student.nhlstenden.com</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23-10-2022</t>
+          <t>11-28-2022</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arcady</t>
+          <t>CIMSOLUTIONS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bezoekers conferentie webapplicatie t.b.v. de Conferentie</t>
+          <t>Detectiesysteem gebruik kantoorruimtes CIMSOLUTIONS</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Joop de Graaf</t>
+          <t>Kobus Hettinga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4575741</t>
+          <t>4687426</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0629780039</t>
+          <t>06 20917971</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joop.de.graaf@student.nhlstenden.com</t>
+          <t>kobus.hettinga@student.nhlstenden.com</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>08-11-2022</t>
+          <t>22/11/2022</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>De Haan Westerhoff</t>
+          <t>Compano</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>De positie van DHW in de zonweringsmarkt versterken en uitbouwen door het optimaliseren van de digitale bedrijfsprocessen op de afdeling planning.</t>
+          <t>Vernieuwde Compano API</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Joop de Graaf</t>
+          <t>Nick van Urk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4575741</t>
+          <t>3480487</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0629780039</t>
+          <t>0615295732</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Joop.de.graaf@student.nhlstenden.com</t>
+          <t>nickvanurk@hotmail.com</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>08-11-2022</t>
+          <t>26-11-2022</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De Haan Westerhoff</t>
+          <t>Yobbers</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Het optimaliseren van de digitale bedrijfsprocessen op de afdeling planning en de planningsdata beschikbaar maken voor de andere afdelingen van DHW.</t>
+          <t>Yobbers Community App</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kevin Chen</t>
+          <t>Robert Slomp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3517488</t>
+          <t>3417904</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>050 – 520 1300</t>
+          <t>+31 6 15665273</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kevin.chen@student.nhlstenden.com</t>
+          <t>robert.slomp@student.nhlstenden.com</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21-2022</t>
+          <t>21 november 2022 / v1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CIMSOLUTIONS</t>
+          <t>Compano B.V.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Detectiesysteem gebruik kantoorruimtes CIMSOLUTIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Kevin Chen</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3517488</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>050 – 520 1300</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Kevin.chen@student.nhlstenden.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>11-28-2022</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CIMSOLUTIONS</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Detectiesysteem gebruik kantoorruimtes CIMSOLUTIONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Kobus Hettinga</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>4687426</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>06 20917971</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>kobus.hettinga@student.nhlstenden.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22/11/2022</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Compano</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Vernieuwde Compano API</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nick van Urk</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>3480487</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0615295732</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>nickvanurk@hotmail.com</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>26-11-2022</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yobbers</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yobbers Community App</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Robert Slomp</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3417904</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>+31 6 15665273</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>robert.slomp@student.nhlstenden.com</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21 november 2022 / v1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Compano B.V.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
         <is>
           <t>Het ontwerpen en ontwikkelen van een cross platform Digital Asset Management systeem voor Compano.</t>
         </is>

--- a/aanvragen.xlsx
+++ b/aanvragen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>datum/versie</t>
+          <t>datum</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>versie</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bedrijf</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>titel</t>
         </is>
@@ -493,15 +498,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28-11-2022 / Versie 1</t>
+          <t>28-11-2022</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Versie 1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Compasity B.V.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Verzuimcoach app voor werkgevers</t>
         </is>
@@ -533,12 +543,13 @@
           <t>01-11-2022</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Arcady</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gamification peer to peer omgeving</t>
         </is>
@@ -570,12 +581,13 @@
           <t>08-11-2022</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>De Haan Westerhoff</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Het optimaliseren van de digitale bedrijfsprocessen op de afdeling planning en de planningsdata beschikbaar maken voor de andere afdelingen van DHW.</t>
         </is>
@@ -607,12 +619,13 @@
           <t>11-28-2022</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>CIMSOLUTIONS</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Detectiesysteem gebruik kantoorruimtes CIMSOLUTIONS</t>
         </is>
@@ -641,15 +654,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22/11/2022</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+          <t>22-11-2022</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Compano</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vernieuwde Compano API</t>
         </is>
@@ -681,12 +695,13 @@
           <t>26-11-2022</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Yobbers</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Yobbers Community App</t>
         </is>
@@ -715,15 +730,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21 november 2022 / v1</t>
+          <t>21-11-2022</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>v1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Compano B.V.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Het ontwerpen en ontwikkelen van een cross platform Digital Asset Management systeem voor Compano.</t>
         </is>
